--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_133__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_133__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,298 +5873,298 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>0.9101400971412659</c:v>
+                  <c:v>0.9101351499557495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.91011047363281</c:v>
+                  <c:v>12.91010761260986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.78227996826172</c:v>
+                  <c:v>12.7822790145874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.781482219696045</c:v>
+                  <c:v>5.781479835510254</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.13078308105469</c:v>
+                  <c:v>43.13078689575195</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.96091270446777</c:v>
+                  <c:v>15.96090126037598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.26542663574219</c:v>
+                  <c:v>33.26541137695312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.451046466827393</c:v>
+                  <c:v>7.451041698455811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.145925521850586</c:v>
+                  <c:v>9.145899772644043</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.781442165374756</c:v>
+                  <c:v>-2.781430006027222</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.41131973266602</c:v>
+                  <c:v>30.41132354736328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.1247652843594551</c:v>
+                  <c:v>-0.1247716397047043</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.90642547607422</c:v>
+                  <c:v>26.90643119812012</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.6098108291626</c:v>
+                  <c:v>10.60980129241943</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.364587783813477</c:v>
+                  <c:v>6.364596843719482</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.97510528564453</c:v>
+                  <c:v>29.9751091003418</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>24.68517303466797</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.3084602355957</c:v>
+                  <c:v>17.30845642089844</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.07534885406494</c:v>
+                  <c:v>11.07535362243652</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.80777168273926</c:v>
+                  <c:v>18.80779075622559</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>27.43205833435059</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.729990005493164</c:v>
+                  <c:v>9.729991912841797</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>16.97406387329102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.62406539916992</c:v>
+                  <c:v>26.62407112121582</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.019755363464355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.648001670837402</c:v>
+                  <c:v>9.647998809814453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.06280136108398</c:v>
+                  <c:v>19.06279563903809</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>15.73982429504395</c:v>
+                  <c:v>15.73981857299805</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22.1319637298584</c:v>
+                  <c:v>22.13195991516113</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>18.90999221801758</c:v>
+                  <c:v>18.90999412536621</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.98159027099609</c:v>
+                  <c:v>22.98158264160156</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.936127185821533</c:v>
+                  <c:v>6.936133861541748</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.21369934082031</c:v>
+                  <c:v>20.21369171142578</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.980183601379395</c:v>
+                  <c:v>9.980181694030762</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.639257431030273</c:v>
+                  <c:v>8.639262199401855</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33.71046447753906</c:v>
+                  <c:v>33.71045684814453</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.779239654541016</c:v>
+                  <c:v>7.779238700866699</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.209770441055298</c:v>
+                  <c:v>1.209775567054749</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>10.39098453521729</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.76638603210449</c:v>
+                  <c:v>15.76638412475586</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>24.9039306640625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.99873542785645</c:v>
+                  <c:v>28.99874114990234</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-3.94835352897644</c:v>
+                  <c:v>-3.948344469070435</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.78104972839355</c:v>
+                  <c:v>18.78103446960449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>25.61163520812988</c:v>
+                  <c:v>25.61162567138672</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14.24909210205078</c:v>
+                  <c:v>14.24908256530762</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.02954578399658</c:v>
+                  <c:v>14.029541015625</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>14.39319610595703</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>19.31030464172363</c:v>
+                  <c:v>19.31029510498047</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>18.67567443847656</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>10.95161819458008</c:v>
+                  <c:v>10.9516134262085</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.17815399169922</c:v>
+                  <c:v>15.17816162109375</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>25.1995792388916</c:v>
+                  <c:v>25.19958114624023</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.60843372344971</c:v>
+                  <c:v>14.60843467712402</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.78877067565918</c:v>
+                  <c:v>20.78878211975098</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.94005584716797</c:v>
+                  <c:v>18.94005012512207</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.643267154693604</c:v>
+                  <c:v>5.643262386322021</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>14.37040710449219</c:v>
+                  <c:v>14.3704137802124</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.61524772644043</c:v>
+                  <c:v>3.615252256393433</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.49393081665039</c:v>
+                  <c:v>19.49393463134766</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>23.89084053039551</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11.8709192276001</c:v>
+                  <c:v>11.87090969085693</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.92198753356934</c:v>
+                  <c:v>31.92199325561523</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>18.9345645904541</c:v>
+                  <c:v>18.93455505371094</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>9.660048484802246</c:v>
+                  <c:v>9.660037040710449</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>16.59703063964844</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>12.98031902313232</c:v>
+                  <c:v>12.98030853271484</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.11123561859131</c:v>
+                  <c:v>15.11123847961426</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>8.001945495605469</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.31505584716797</c:v>
+                  <c:v>12.31505107879639</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18.69741439819336</c:v>
+                  <c:v>18.6974048614502</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>31.24324226379395</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.98425960540771</c:v>
+                  <c:v>14.9842529296875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>8.894900321960449</c:v>
+                  <c:v>8.89490795135498</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>19.80268096923828</c:v>
+                  <c:v>19.80266380310059</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>18.8133487701416</c:v>
+                  <c:v>18.81335258483887</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.397228240966797</c:v>
+                  <c:v>8.397231101989746</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.9249563217163086</c:v>
+                  <c:v>-0.9249505400657654</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.37172698974609</c:v>
+                  <c:v>22.3717155456543</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-6.870081424713135</c:v>
+                  <c:v>-6.870084762573242</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>14.41171073913574</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>18.12719535827637</c:v>
+                  <c:v>18.12718963623047</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>17.84449005126953</c:v>
+                  <c:v>17.844482421875</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>23.02788162231445</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>13.41337871551514</c:v>
+                  <c:v>13.41336917877197</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.462132930755615</c:v>
+                  <c:v>-2.462128162384033</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.749592781066895</c:v>
+                  <c:v>3.749595880508423</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>29.81562042236328</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.54599189758301</c:v>
+                  <c:v>13.54598808288574</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>5.976637840270996</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17.49601936340332</c:v>
+                  <c:v>17.49602317810059</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.251136779785156</c:v>
+                  <c:v>8.251137733459473</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.91360378265381</c:v>
+                  <c:v>14.91361045837402</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>12.76278591156006</c:v>
+                  <c:v>12.76279354095459</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-2.175986289978027</c:v>
+                  <c:v>-2.175983905792236</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>23.88327407836914</c:v>
+                  <c:v>23.88326072692871</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.31699085235596</c:v>
+                  <c:v>15.31699562072754</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.50746154785156</c:v>
+                  <c:v>28.50747680664062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9101400971412659</v>
+        <v>0.9101351499557495</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>12.91011047363281</v>
+        <v>12.91010761260986</v>
       </c>
       <c r="G3">
         <v>86</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12.78227996826172</v>
+        <v>12.7822790145874</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.781482219696045</v>
+        <v>5.781479835510254</v>
       </c>
       <c r="G5">
         <v>86</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>43.13078308105469</v>
+        <v>43.13078689575195</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.96091270446777</v>
+        <v>15.96090126037598</v>
       </c>
       <c r="G7">
         <v>86</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.26542663574219</v>
+        <v>33.26541137695312</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>7.451046466827393</v>
+        <v>7.451041698455811</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.145925521850586</v>
+        <v>9.145899772644043</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-2.781442165374756</v>
+        <v>-2.781430006027222</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.41131973266602</v>
+        <v>30.41132354736328</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>-0.1247652843594551</v>
+        <v>-0.1247716397047043</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.90642547607422</v>
+        <v>26.90643119812012</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.6098108291626</v>
+        <v>10.60980129241943</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>6.364587783813477</v>
+        <v>6.364596843719482</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>29.97510528564453</v>
+        <v>29.9751091003418</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>17.3084602355957</v>
+        <v>17.30845642089844</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>11.07534885406494</v>
+        <v>11.07535362243652</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.80777168273926</v>
+        <v>18.80779075622559</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>9.729990005493164</v>
+        <v>9.729991912841797</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.62406539916992</v>
+        <v>26.62407112121582</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>9.648001670837402</v>
+        <v>9.647998809814453</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>19.06280136108398</v>
+        <v>19.06279563903809</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>15.73982429504395</v>
+        <v>15.73981857299805</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>22.1319637298584</v>
+        <v>22.13195991516113</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>18.90999221801758</v>
+        <v>18.90999412536621</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>22.98159027099609</v>
+        <v>22.98158264160156</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>6.936127185821533</v>
+        <v>6.936133861541748</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>20.21369934082031</v>
+        <v>20.21369171142578</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>9.980183601379395</v>
+        <v>9.980181694030762</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>8.639257431030273</v>
+        <v>8.639262199401855</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>33.71046447753906</v>
+        <v>33.71045684814453</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7.779239654541016</v>
+        <v>7.779238700866699</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.209770441055298</v>
+        <v>1.209775567054749</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>15.76638603210449</v>
+        <v>15.76638412475586</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.99873542785645</v>
+        <v>28.99874114990234</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-3.94835352897644</v>
+        <v>-3.948344469070435</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>18.78104972839355</v>
+        <v>18.78103446960449</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>25.61163520812988</v>
+        <v>25.61162567138672</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>14.24909210205078</v>
+        <v>14.24908256530762</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>14.02954578399658</v>
+        <v>14.029541015625</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>19.31030464172363</v>
+        <v>19.31029510498047</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>10.95161819458008</v>
+        <v>10.9516134262085</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.17815399169922</v>
+        <v>15.17816162109375</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>25.1995792388916</v>
+        <v>25.19958114624023</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>14.60843372344971</v>
+        <v>14.60843467712402</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>20.78877067565918</v>
+        <v>20.78878211975098</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>18.94005584716797</v>
+        <v>18.94005012512207</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>5.643267154693604</v>
+        <v>5.643262386322021</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>14.37040710449219</v>
+        <v>14.3704137802124</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>3.61524772644043</v>
+        <v>3.615252256393433</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>19.49393081665039</v>
+        <v>19.49393463134766</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>11.8709192276001</v>
+        <v>11.87090969085693</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>31.92198753356934</v>
+        <v>31.92199325561523</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>18.9345645904541</v>
+        <v>18.93455505371094</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>9.660048484802246</v>
+        <v>9.660037040710449</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>12.98031902313232</v>
+        <v>12.98030853271484</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>15.11123561859131</v>
+        <v>15.11123847961426</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>12.31505584716797</v>
+        <v>12.31505107879639</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>18.69741439819336</v>
+        <v>18.6974048614502</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>14.98425960540771</v>
+        <v>14.9842529296875</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>8.894900321960449</v>
+        <v>8.89490795135498</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>19.80268096923828</v>
+        <v>19.80266380310059</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>18.8133487701416</v>
+        <v>18.81335258483887</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>8.397228240966797</v>
+        <v>8.397231101989746</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.9249563217163086</v>
+        <v>-0.9249505400657654</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>22.37172698974609</v>
+        <v>22.3717155456543</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-6.870081424713135</v>
+        <v>-6.870084762573242</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>18.12719535827637</v>
+        <v>18.12718963623047</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>17.84449005126953</v>
+        <v>17.844482421875</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>13.41337871551514</v>
+        <v>13.41336917877197</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-2.462132930755615</v>
+        <v>-2.462128162384033</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>3.749592781066895</v>
+        <v>3.749595880508423</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>13.54599189758301</v>
+        <v>13.54598808288574</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>17.49601936340332</v>
+        <v>17.49602317810059</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>8.251136779785156</v>
+        <v>8.251137733459473</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>14.91360378265381</v>
+        <v>14.91361045837402</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>12.76278591156006</v>
+        <v>12.76279354095459</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-2.175986289978027</v>
+        <v>-2.175983905792236</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>23.88327407836914</v>
+        <v>23.88326072692871</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>15.31699085235596</v>
+        <v>15.31699562072754</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.50746154785156</v>
+        <v>28.50747680664062</v>
       </c>
     </row>
     <row r="100" spans="1:6">
